--- a/output/飲食業_山形市以外.xlsx
+++ b/output/飲食業_山形市以外.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB0919-06F7-4CEA-BD06-DC2950EFE510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B51BEC-2103-4418-AF9B-82605EDEB74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="3780" windowWidth="28485" windowHeight="14700" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="1875" yWindow="2235" windowWidth="29625" windowHeight="14700" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12485,14 +12485,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12810,43 +12809,46 @@
   <dimension ref="A1:K1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -17596,10 +17598,10 @@
         <v>444</v>
       </c>
       <c r="J163">
-        <v>38.876921400000001</v>
+        <v>38.883543801408599</v>
       </c>
       <c r="K163">
-        <v>140.40591280000001</v>
+        <v>140.337295375922</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.4">
@@ -19104,10 +19106,10 @@
         <v>619</v>
       </c>
       <c r="J215">
-        <v>38.763592899999999</v>
+        <v>38.737264479371603</v>
       </c>
       <c r="K215">
-        <v>140.62386000000001</v>
+        <v>140.61674158777899</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.4">
@@ -23839,10 +23841,10 @@
         <v>766</v>
       </c>
       <c r="J376">
-        <v>38.914780899999997</v>
+        <v>38.845993894253802</v>
       </c>
       <c r="K376">
-        <v>139.8366436</v>
+        <v>139.79009799634301</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.4">
@@ -25510,10 +25512,10 @@
         <v>1291</v>
       </c>
       <c r="J433">
-        <v>38.100600200000002</v>
+        <v>38.102942305691002</v>
       </c>
       <c r="K433">
-        <v>140.29123509999999</v>
+        <v>140.298842577968</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.4">
@@ -25542,10 +25544,10 @@
         <v>1291</v>
       </c>
       <c r="J434">
-        <v>38.100700200000006</v>
+        <v>38.1028552886456</v>
       </c>
       <c r="K434">
-        <v>140.29123509999999</v>
+        <v>140.29938927129101</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.4">
@@ -34135,10 +34137,10 @@
         <v>2125</v>
       </c>
       <c r="J727">
-        <v>38.110654866788302</v>
+        <v>38.110542282446403</v>
       </c>
       <c r="K727">
-        <v>140.034527459207</v>
+        <v>140.03461354647899</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.4">
@@ -34164,10 +34166,10 @@
         <v>2125</v>
       </c>
       <c r="J728">
-        <v>38.111575084979997</v>
+        <v>38.111614789964698</v>
       </c>
       <c r="K728">
-        <v>140.035595385779</v>
+        <v>140.03574189421801</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.4">
@@ -34193,10 +34195,10 @@
         <v>2125</v>
       </c>
       <c r="J729">
-        <v>38.108805100000005</v>
+        <v>38.111614789964698</v>
       </c>
       <c r="K729">
-        <v>140.0351545</v>
+        <v>140.035641894218</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.4">
@@ -34222,10 +34224,10 @@
         <v>2125</v>
       </c>
       <c r="J730">
-        <v>38.108705100000002</v>
+        <v>38.111714789964701</v>
       </c>
       <c r="K730">
-        <v>140.03525450000001</v>
+        <v>140.035641894218</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.4">
@@ -36583,10 +36585,10 @@
         <v>2264</v>
       </c>
       <c r="J811">
-        <v>38.726922199999997</v>
+        <v>38.726978290158499</v>
       </c>
       <c r="K811">
-        <v>139.83308729999999</v>
+        <v>139.83312901259001</v>
       </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.4">
@@ -39518,10 +39520,10 @@
         <v>2264</v>
       </c>
       <c r="J912">
-        <v>38.727011900000001</v>
+        <v>38.7268733298868</v>
       </c>
       <c r="K912">
-        <v>139.83263220000001</v>
+        <v>139.832634137323</v>
       </c>
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.4">
@@ -39547,10 +39549,10 @@
         <v>2264</v>
       </c>
       <c r="J913">
-        <v>38.727111900000004</v>
+        <v>38.727056470059097</v>
       </c>
       <c r="K913">
-        <v>139.83263220000001</v>
+        <v>139.832400785152</v>
       </c>
     </row>
     <row r="914" spans="1:11" x14ac:dyDescent="0.4">
@@ -39576,10 +39578,10 @@
         <v>2264</v>
       </c>
       <c r="J914">
-        <v>38.727011900000001</v>
+        <v>38.726376000641302</v>
       </c>
       <c r="K914">
-        <v>139.83273220000001</v>
+        <v>139.83198548221</v>
       </c>
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.4">
@@ -39605,10 +39607,10 @@
         <v>2264</v>
       </c>
       <c r="J915">
-        <v>38.727111900000004</v>
+        <v>38.726987706351899</v>
       </c>
       <c r="K915">
-        <v>139.83273220000001</v>
+        <v>139.83255501989299</v>
       </c>
     </row>
     <row r="916" spans="1:11" x14ac:dyDescent="0.4">
@@ -45080,10 +45082,10 @@
         <v>3268</v>
       </c>
       <c r="J1101">
-        <v>38.0588713</v>
+        <v>38.063687410247098</v>
       </c>
       <c r="K1101">
-        <v>140.1398361</v>
+        <v>140.14141832683799</v>
       </c>
     </row>
     <row r="1102" spans="1:11" x14ac:dyDescent="0.4">
